--- a/Tableau Table 1.xlsx
+++ b/Tableau Table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1c8e48a6948c60c/Data Analytics/DataAnalytics-Projects-SQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC104851E11B71B25BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31C74851-B6F2-4AA6-9990-FE5E3187011A}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC104851E11B71B25BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D285A903-05D6-4D0F-B57D-970CE11EC5A0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,6 +86,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,7 +358,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,13 +381,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>763754828</v>
+        <v>764489075</v>
       </c>
       <c r="B2">
-        <v>6915095</v>
+        <v>6921470</v>
       </c>
       <c r="C2">
-        <v>0.90540769714126101</v>
+        <v>0.90537199632316501</v>
       </c>
     </row>
   </sheetData>
